--- a/SWE.2/Door_Lock_Control_ECU_SWE2_Architectural_Design_FULL.xlsx
+++ b/SWE.2/Door_Lock_Control_ECU_SWE2_Architectural_Design_FULL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitedmentors.sharepoint.com/sites/Home03/Freigegebene Dokumente/Roman/02 External Users/Car 2.0/CORE SPICE/80 Demos/Traceability - Door Handle/SWE.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomanMildner\Documents\GitHub\DOORLOCK_DEMO\SWE.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_8DC6A6568E3FFD032965275ABDFA446758C7D081" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18ED26BF-FA63-4234-B2B0-E75D90E12366}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D126B55E-9F1F-4ED9-B004-BE47FE700164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76680" yWindow="3555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SW_Components" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Quality_NFR!$A$1:$F$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SW_Components!$A$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SW_Components!$A$1:$L$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">SW_Data_Types_APIs!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SW_Dynamics!$A$1:$H$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SW_Interfaces!$A$1:$M$13</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="413">
   <si>
     <t>SWD-ID</t>
   </si>
@@ -1644,11 +1644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1663,12 +1663,11 @@
     <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,16 +1699,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1741,13 +1737,10 @@
         <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1779,13 +1772,10 @@
         <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1817,13 +1807,10 @@
         <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1855,13 +1842,10 @@
         <v>79</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1893,13 +1877,10 @@
         <v>80</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1931,13 +1912,10 @@
         <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1969,13 +1947,10 @@
         <v>82</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2007,13 +1982,10 @@
         <v>83</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2045,13 +2017,10 @@
         <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2083,13 +2052,10 @@
         <v>85</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2121,13 +2087,10 @@
         <v>86</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2159,13 +2122,10 @@
         <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2197,13 +2157,10 @@
         <v>88</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2235,13 +2192,10 @@
         <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L15" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2273,13 +2227,10 @@
         <v>90</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2311,13 +2262,10 @@
         <v>91</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -2349,14 +2297,11 @@
         <v>92</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="2" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L18" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4419,26 +4364,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d7bdf8f-f672-4c3b-a38b-a075c28e5413">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8cc483e8-0501-47e6-af6e-9918f6216539" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100255659F6F40E5745B1B4A08EC05C8C08" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52b8707b37ffee0df0732948dfb84612">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d7bdf8f-f672-4c3b-a38b-a075c28e5413" xmlns:ns3="8cc483e8-0501-47e6-af6e-9918f6216539" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5ee64050cb8d8509e6cb797eb8f3aed" ns2:_="" ns3:_="">
     <xsd:import namespace="6d7bdf8f-f672-4c3b-a38b-a075c28e5413"/>
@@ -4693,32 +4618,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA5CFC5-1ABB-4C93-AA3B-6EF0E7335CDE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6d7bdf8f-f672-4c3b-a38b-a075c28e5413"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8cc483e8-0501-47e6-af6e-9918f6216539"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F360FAD0-CAA4-495D-B943-0CE29FE09F76}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6d7bdf8f-f672-4c3b-a38b-a075c28e5413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8cc483e8-0501-47e6-af6e-9918f6216539" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F282BA5-2528-4C55-8A75-773E0348F584}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4735,4 +4655,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F360FAD0-CAA4-495D-B943-0CE29FE09F76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA5CFC5-1ABB-4C93-AA3B-6EF0E7335CDE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6d7bdf8f-f672-4c3b-a38b-a075c28e5413"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8cc483e8-0501-47e6-af6e-9918f6216539"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>